--- a/docs/Kartläggning_fritid.xlsx
+++ b/docs/Kartläggning_fritid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarala/DIDsteg2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CF93C2-E170-D743-887F-F1CAC9C43A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880FB3F1-5A3A-854C-9B61-45B1570BC513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
+    <workbookView xWindow="2900" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Kartläggande frågor" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Denna kartläggning besvaras av kommun:</t>
   </si>
@@ -65,18 +65,9 @@
     <t>Samordnade insatser runt barn och unga</t>
   </si>
   <si>
-    <t>Det finns en samverkansöverenskommelse rörande tidiga insatser till barn och unga mellan skola, hälso- och sjukvård, socialtjänst, fritidsverksamhet och polis.</t>
-  </si>
-  <si>
-    <t>Det finns kommunövergripande rutiner för samverkan mellan fritids – och föreningsverksamheter samt socialtjänst, skola och hälso- och sjukvård</t>
-  </si>
-  <si>
     <t xml:space="preserve">Det finns plattformar eller forum för tvärsektoriellt arbete där fritids- och föreningsverksamhet ingår.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Fritidshem av hög kvalitet </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verksamheten planeras, följs upp och utvecklas utifrån de nationella målen och läroplan för fritidshem (systematiskt kvalitetsarbete) </t>
   </si>
   <si>
@@ -89,27 +80,12 @@
     <t>Barnet och vårdnadshavare erbjuds inflytande över utbildningen i fritidshemmet.</t>
   </si>
   <si>
-    <t>Öppen fritidsverksamhet/mötesplatser av hög kvalitet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommunen erbjuder öppen fritidsverksamhet, exempelvis fritidsgårdar, ungdomens hus eller aktivitetshus. </t>
-  </si>
-  <si>
     <t>Det görs uppföljning av vilka målgrupper som deltar i den öppna fritidsverksamheten.</t>
   </si>
   <si>
-    <t>Det finns samverkan med lokala aktörer som erbjuder ungdomsverksamhet, så som civilsamhällesorganisationer och privata aktörer.</t>
-  </si>
-  <si>
-    <t>Det finns förutsättningar/plattformar för samverkan med existerande fritidsverksamhet.</t>
-  </si>
-  <si>
     <t>Det finns långsiktig finansiering för arbetet med öppen fritidsverksamhet.</t>
   </si>
   <si>
-    <t xml:space="preserve">Det finns en kontinuerlig samverkan och dialog med skolan. </t>
-  </si>
-  <si>
     <t>Verksamheten planeras och anpassas utifrån det enskilda barnet och ungdomen.</t>
   </si>
   <si>
@@ -122,27 +98,15 @@
     <t>Det finns samverkan med andra lokala aktörer som erbjuder barn -och ungdomsverksamhet, såsom öppen fritidsverksamhet, civilsamhällesorganisationer och privata aktörer.</t>
   </si>
   <si>
-    <t xml:space="preserve">Uppföljning görs av vilka som besöker barn och ungdomsverksamheten på biblioteken. </t>
-  </si>
-  <si>
     <t>Det finns långsiktig finansiering av barn och ungdomsverksamheten på biblioteken.</t>
   </si>
   <si>
-    <t>Det finns mål/strategier för arbetet med barn och ungdomsverksamheten på biblioteken.</t>
-  </si>
-  <si>
-    <t>Uppföljning görs av barn och ungdomsverksamhetens effekter för barn och unga.</t>
-  </si>
-  <si>
     <t>Inkluderande kultur-/musikskola</t>
   </si>
   <si>
     <t>Kommunen har en eller flera kultur-/musikskolor.</t>
   </si>
   <si>
-    <t>Det finns mål/strategier för arbetet med inkluderande kultur-/musikskola.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Det finns en utvecklad samverkan mellan skolan och kultur-/musikskolan. </t>
   </si>
   <si>
@@ -152,34 +116,112 @@
     <t>Det görs kontinuerlig uppföljning av vilka som besöker kultur-/musikskolan.</t>
   </si>
   <si>
-    <t>Uppföljning görs av kultur-/musikskolans resultat och/eller effekter för barn och unga.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krav på inkluderande föreningsverksamhet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommunen ställer krav på föreningsverksamhet. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kostnadsfria lovaktiviteter  </t>
   </si>
   <si>
     <t>Kommunen erbjuder kostnadsfria lovaktiviteter.</t>
   </si>
   <si>
-    <t>Föräldrar i kommunen erbjuds föräldragrupp via MHV respektive BHV.</t>
-  </si>
-  <si>
     <t>Det finns långsiktig finansiering för kostnadsfria lovaktiviteter.</t>
   </si>
   <si>
-    <t>Uppföljning görs av vilka som deltar kostnadsfria lovaktiviteter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uppföljning görs av vilka resultat som kostnadsfria lovaktiviteter får för barn och unga. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socialt fältarbete med barn och unga  </t>
+    <t>Det finns en överenskommelse rörande samordnade insatser runt barn och ungdomar mellan relevanta aktörer där kultur- och fritidsverksamheten ingår.</t>
+  </si>
+  <si>
+    <t>Det finns mål och strategier för arbetet med samordnade insatser runt barn och ungdomar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det finns långsiktig finansiering för samordnade insatser runt barn och ungdomar. </t>
+  </si>
+  <si>
+    <t>Det görs uppföljning av vilka målgrupper som nås genom de samordnade insatserna.</t>
+  </si>
+  <si>
+    <t>Det görs uppföljning av arbetets resultat för barn och ungdomar.</t>
+  </si>
+  <si>
+    <t>Barn och ungdomar involveras i utformningen av insatserna.</t>
+  </si>
+  <si>
+    <t>Fritidshem</t>
+  </si>
+  <si>
+    <t>Öppen fritidsverksamhet/mötesplatser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommunen erbjuder öppen fritidsverksamhet, exempelvis fritidsgårdar, ungdomens hus eller aktivitetshus för barn i åldern 10-13 år. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommunen erbjuder öppen fritidsverksamhet, exempelvis fritidsgårdar, ungdomens hus eller aktivitetshus för barn och ungdomar i åldern 13-25 år. </t>
+  </si>
+  <si>
+    <t>Barn och ungdomar inkluderas i utformningen av verksamheten.</t>
+  </si>
+  <si>
+    <t>Det finns mål och strategier för arbetet med barn och ungdomsverksamheten på biblioteken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det görs uppföljning av vilka som besöker barn och ungdomsverksamheten på biblioteken. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det finns samverkan med andra lokala aktörer som erbjuder ungdomsverksamhet, så som, öppen fritidsverksamhet, civilsamhällesorganisationer och privata aktörer. </t>
+  </si>
+  <si>
+    <t>Det finns mål och strategier för arbetet med inkluderande kultur-/musikskola.</t>
+  </si>
+  <si>
+    <t>Tillgänglig och inkluderande fritidsverksamhet</t>
+  </si>
+  <si>
+    <t>Kommunen ställer krav på föreningsverksamhet att vara inkluderande.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det finns en samverkansöverenskommelse rörande inkluderande fritid för barn och unga mellan kommunen (skola och fritid) och föreningsverksamhet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Föreningsverksamhet planeras och anpassas utifrån fysiska, psykiska eller andra behov och intressen hos det enskilda barnet eller ungdomen. </t>
+  </si>
+  <si>
+    <t>Det görs uppföljning av vilka målgrupper som tar del av fritidsverksamheter i kommunen och om identifierade riskgrupper nås.</t>
+  </si>
+  <si>
+    <t>Det görs kontinuerlig uppföljning av hur föreningsverksamheten lever upp till utformade krav.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verksamheten planeras och anpassas utifrån fysiska, psykiska och/eller andra behov och intressen hos enskilda barnet och ungdomen. </t>
+  </si>
+  <si>
+    <t>Det görs uppföljning  av vilka målgrupper som deltar i kostnadsfria lovaktiviteter.</t>
+  </si>
+  <si>
+    <t>Det finns mål och strategier för arbetet med kostnadsfria lovaktiviteter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det finns en samverkan med andra förvaltningar i kommunen, och andra lokala aktörer, så som föreningar, privata aktörer eller näringsliv. </t>
+  </si>
+  <si>
+    <t>Barn och ungdomar inkluderas i utformningen av aktiviteterna.</t>
+  </si>
+  <si>
+    <t>Socialt fältarbete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommunen arbetar med socialt fältarbete. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det finns en överenskommelse och rutiner för samverkan mellan fältverksamheten och närliggande verksamhet som exempelvis socialtjänstens myndighetsutövning, öppenvård, skola, polis och fritidsverksamheter centralt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det finns tydliga rutiner, riktlinjer och mål kring vad det sociala fältarbetet bör innehålla och leda till. </t>
+  </si>
+  <si>
+    <t>Det finns en långsiktig finansiering av fältverksamheten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbetet dokumenteras och följs upp.  </t>
+  </si>
+  <si>
+    <t>Barn och unga involveras i planeringen och genomförandet av organiserade aktiviteter.</t>
   </si>
 </sst>
 </file>
@@ -207,16 +249,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF242424"/>
+      <name val="Code Pro Bold"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF242424"/>
-      <name val="Code Pro Bold"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -333,11 +375,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -359,9 +432,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
@@ -371,12 +441,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC34EE-B55D-6C4C-A07E-2F5F91D32621}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -778,7 +858,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -812,8 +892,8 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="19">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:7" ht="44">
+      <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1"/>
@@ -821,8 +901,8 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="80">
-      <c r="A8" s="12" t="s">
-        <v>9</v>
+      <c r="A8" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -833,9 +913,9 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="80">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="60">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -844,9 +924,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A10" s="12" t="s">
-        <v>11</v>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="40">
+      <c r="A10" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -855,365 +935,485 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="19">
-      <c r="A11" s="13"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="19">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="40">
+      <c r="A11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="40">
+      <c r="A13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="40">
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="19">
+      <c r="A15" s="12"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="22">
+      <c r="A16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="60">
+      <c r="A17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="60">
+      <c r="A18" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="60">
+      <c r="A19" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="40">
-      <c r="A16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="19">
-      <c r="A17" s="9"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="40">
-      <c r="A18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="60">
-      <c r="A19" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A20" s="12" t="s">
-        <v>19</v>
+      <c r="A20" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" ht="80">
-      <c r="A21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A23" s="12" t="s">
-        <v>22</v>
+    <row r="21" spans="1:4" ht="19">
+      <c r="A21" s="9"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="22">
+      <c r="A22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="60">
+      <c r="A23" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A24" s="12" t="s">
-        <v>23</v>
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="80">
+      <c r="A24" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A25" s="12" t="s">
-        <v>24</v>
+      <c r="A25" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="19">
-      <c r="A26" s="13"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="19">
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A28" s="12" t="s">
-        <v>26</v>
+      <c r="A28" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" s="4" customFormat="1" ht="100">
-      <c r="A29" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A30" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+    <row r="29" spans="1:4" ht="19">
+      <c r="A29" s="12"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="44">
+      <c r="A30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A31" s="12" t="s">
-        <v>29</v>
+      <c r="A31" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A32" s="12" t="s">
-        <v>28</v>
+    <row r="32" spans="1:4" s="4" customFormat="1" ht="100">
+      <c r="A32" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" ht="60">
-      <c r="A33" s="12" t="s">
-        <v>31</v>
+      <c r="A33" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" ht="19">
-      <c r="A34" s="13"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="19">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A36" s="12" t="s">
-        <v>33</v>
+      <c r="A36" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A37" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A38" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+    <row r="37" spans="1:4" ht="19">
+      <c r="A37" s="12"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="22">
+      <c r="A38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A39" s="12" t="s">
-        <v>36</v>
+      <c r="A39" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A40" s="12" t="s">
-        <v>37</v>
+    <row r="40" spans="1:4" s="4" customFormat="1" ht="100">
+      <c r="A40" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A41" s="12" t="s">
-        <v>38</v>
+      <c r="A41" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="19">
-      <c r="A42" s="13"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" ht="20">
-      <c r="A43" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+    <row r="42" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A42" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A43" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A44" s="14" t="s">
-        <v>40</v>
+      <c r="A44" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="19">
-      <c r="A45" s="9"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+    <row r="45" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="19">
-      <c r="A46" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="A46" s="12"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A48" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A49" s="12" t="s">
+    <row r="47" spans="1:4" s="16" customFormat="1" ht="44">
+      <c r="A47" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A50" s="12" t="s">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" s="16" customFormat="1" ht="40">
+      <c r="A48" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" s="4" customFormat="1" ht="60">
-      <c r="A51" s="12" t="s">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" s="16" customFormat="1" ht="80">
+      <c r="A49" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" ht="19">
-      <c r="A52" s="13"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" ht="19">
-      <c r="A53" s="11" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" s="16" customFormat="1" ht="80">
+      <c r="A50" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" s="16" customFormat="1" ht="60">
+      <c r="A51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" s="16" customFormat="1" ht="60">
+      <c r="A52" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="19">
+      <c r="A53" s="9"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" s="4" customFormat="1" ht="19">
-      <c r="A54" s="12"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="19">
-      <c r="A55" s="9"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="19">
-      <c r="A56" s="9"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" ht="19">
-      <c r="A57" s="9"/>
-    </row>
-    <row r="59" spans="1:4" ht="19">
-      <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" ht="19">
-      <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:4" ht="19">
-      <c r="A61" s="9"/>
+    <row r="54" spans="1:5" ht="22">
+      <c r="A54" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="25" customHeight="1">
+      <c r="A55" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A56" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="60">
+      <c r="A57" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A58" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A59" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" s="4" customFormat="1" ht="80">
+      <c r="A60" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A61" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="1:5" ht="22">
+      <c r="A63" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" s="16" customFormat="1" ht="20">
+      <c r="A64" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
+      <c r="A65" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="23"/>
+    </row>
+    <row r="66" spans="1:5" s="4" customFormat="1" ht="60">
+      <c r="A66" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="23"/>
+    </row>
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A67" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="23"/>
+    </row>
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="20">
+      <c r="A68" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="23"/>
+    </row>
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A69" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="1:5" ht="19">
+      <c r="A70" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Kartläggning_fritid.xlsx
+++ b/docs/Kartläggning_fritid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarala/DIDsteg2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880FB3F1-5A3A-854C-9B61-45B1570BC513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E544A8-F6B8-3547-9107-4C6AC2D6B5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Kartläggande frågor" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Denna kartläggning besvaras av kommun:</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>osv..</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>Kartläggning Basutbud MENINGSFULL FRITID</t>
@@ -269,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -406,11 +403,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -457,6 +467,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC34EE-B55D-6C4C-A07E-2F5F91D32621}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -859,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19">
       <c r="A1" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20">
@@ -892,30 +936,28 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="44">
-      <c r="A7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="80">
-      <c r="A8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+    <row r="7" spans="1:7" s="26" customFormat="1" ht="44">
+      <c r="A7" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" s="16" customFormat="1" ht="80">
+      <c r="A8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="A9" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -926,7 +968,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -937,7 +979,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -948,7 +990,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A12" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -959,7 +1001,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -970,7 +1012,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A14" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -981,127 +1023,132 @@
     </row>
     <row r="15" spans="1:7" ht="19">
       <c r="A15" s="12"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="22">
-      <c r="A16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" ht="60">
-      <c r="A17" s="13" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" s="26" customFormat="1" ht="32" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" s="16" customFormat="1" ht="60">
+      <c r="A17" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="60">
+      <c r="A18" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="60">
-      <c r="A18" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A19" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="40">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A20" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="19">
+    <row r="21" spans="1:5" ht="19">
       <c r="A21" s="9"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="22">
-      <c r="A22" s="17" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" s="32" customFormat="1" ht="36" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" s="16" customFormat="1" ht="60">
+      <c r="A23" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="60">
-      <c r="A23" s="11" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="80">
+      <c r="A24" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" ht="80">
-      <c r="A24" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" ht="40">
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A25" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" ht="40">
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A26" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" s="4" customFormat="1" ht="40">
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A27" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" ht="40">
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A28" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="19">
-      <c r="A29" s="12"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="44">
-      <c r="A30" s="17" t="s">
+    <row r="29" spans="1:5" s="26" customFormat="1" ht="82" customHeight="1">
+      <c r="A29" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" s="16" customFormat="1" ht="40">
+      <c r="A30" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="100">
       <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
@@ -1109,17 +1156,17 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" ht="100">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A32" s="11" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" ht="60">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A33" s="11" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1127,7 +1174,7 @@
     </row>
     <row r="34" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A34" s="11" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1135,43 +1182,43 @@
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A35" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A36" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" ht="19">
-      <c r="A37" s="12"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" ht="22">
-      <c r="A38" s="17" t="s">
+    <row r="36" spans="1:4" ht="19">
+      <c r="A36" s="12"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="1:4" s="26" customFormat="1" ht="32" customHeight="1">
+      <c r="A37" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+    </row>
+    <row r="38" spans="1:4" s="16" customFormat="1" ht="40">
+      <c r="A38" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="100">
       <c r="A39" s="11" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" ht="100">
+    <row r="40" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A40" s="11" t="s">
         <v>42</v>
       </c>
@@ -1181,7 +1228,7 @@
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A41" s="11" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1205,35 +1252,35 @@
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A44" s="11" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A45" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" ht="19">
-      <c r="A46" s="12"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" s="16" customFormat="1" ht="44">
-      <c r="A47" s="17" t="s">
+    <row r="45" spans="1:4" ht="19">
+      <c r="A45" s="12"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="1:4" s="26" customFormat="1" ht="54" customHeight="1">
+      <c r="A46" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+    </row>
+    <row r="47" spans="1:4" s="16" customFormat="1" ht="40">
+      <c r="A47" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" s="16" customFormat="1" ht="40">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" spans="1:4" s="16" customFormat="1" ht="80">
       <c r="A48" s="13" t="s">
         <v>45</v>
       </c>
@@ -1249,9 +1296,9 @@
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="1:5" s="16" customFormat="1" ht="80">
+    <row r="50" spans="1:5" s="16" customFormat="1" ht="60">
       <c r="A50" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -1259,35 +1306,35 @@
     </row>
     <row r="51" spans="1:5" s="16" customFormat="1" ht="60">
       <c r="A51" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="1:5" s="16" customFormat="1" ht="60">
-      <c r="A52" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:5" ht="19">
-      <c r="A53" s="9"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" ht="22">
-      <c r="A54" s="17" t="s">
+    <row r="52" spans="1:5" ht="19">
+      <c r="A52" s="9"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" s="26" customFormat="1" ht="27" customHeight="1">
+      <c r="A53" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+    </row>
+    <row r="54" spans="1:5" s="16" customFormat="1" ht="25" customHeight="1">
+      <c r="A54" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="25" customHeight="1">
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A55" s="13" t="s">
         <v>27</v>
       </c>
@@ -1295,15 +1342,15 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A56" s="13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A57" s="13" t="s">
         <v>50</v>
       </c>
@@ -1319,7 +1366,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="58" customHeight="1">
       <c r="A59" s="13" t="s">
         <v>52</v>
       </c>
@@ -1327,7 +1374,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" ht="80">
+    <row r="60" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A60" s="13" t="s">
         <v>53</v>
       </c>
@@ -1335,39 +1382,40 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" ht="40">
-      <c r="A61" s="13" t="s">
+    <row r="61" spans="1:5">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="20"/>
+    </row>
+    <row r="62" spans="1:5" ht="22">
+      <c r="A62" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="20"/>
-    </row>
-    <row r="63" spans="1:5" ht="22">
-      <c r="A63" s="17" t="s">
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5" s="16" customFormat="1" ht="20">
+      <c r="A63" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="21"/>
-    </row>
-    <row r="64" spans="1:5" s="16" customFormat="1" ht="20">
-      <c r="A64" s="18" t="s">
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
+      <c r="A64" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="22"/>
-    </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="23"/>
+    </row>
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A65" s="19" t="s">
         <v>57</v>
       </c>
@@ -1376,7 +1424,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="23"/>
     </row>
-    <row r="66" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="66" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A66" s="19" t="s">
         <v>58</v>
       </c>
@@ -1385,7 +1433,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="20">
       <c r="A67" s="19" t="s">
         <v>59</v>
       </c>
@@ -1394,7 +1442,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="23"/>
     </row>
-    <row r="68" spans="1:5" s="4" customFormat="1" ht="20">
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A68" s="19" t="s">
         <v>60</v>
       </c>
@@ -1403,19 +1451,36 @@
       <c r="D68" s="5"/>
       <c r="E68" s="23"/>
     </row>
-    <row r="69" spans="1:5" s="4" customFormat="1" ht="40">
-      <c r="A69" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="23"/>
-    </row>
-    <row r="70" spans="1:5" ht="19">
-      <c r="A70" s="9"/>
+    <row r="69" spans="1:5" ht="19">
+      <c r="A69" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C21:C23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/docs/Kartläggning_fritid.xlsx
+++ b/docs/Kartläggning_fritid.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarala/DIDsteg2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E544A8-F6B8-3547-9107-4C6AC2D6B5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE9238-CE98-274E-925D-0BF290095DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kartläggande frågor" sheetId="1" r:id="rId1"/>
+    <sheet name="Sammanfattning Övergripande" sheetId="2" r:id="rId1"/>
+    <sheet name="Kartläggande frågor" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>Denna kartläggning besvaras av kommun:</t>
   </si>
@@ -50,15 +51,9 @@
     <t>25-XX-XX</t>
   </si>
   <si>
-    <t>24-XX-XX</t>
-  </si>
-  <si>
     <t>osv..</t>
   </si>
   <si>
-    <t>Kartläggning Basutbud MENINGSFULL FRITID</t>
-  </si>
-  <si>
     <t>Samordnade insatser runt barn och unga</t>
   </si>
   <si>
@@ -219,13 +214,34 @@
   </si>
   <si>
     <t>Barn och unga involveras i planeringen och genomförandet av organiserade aktiviteter.</t>
+  </si>
+  <si>
+    <t>Kartläggning MENINGSFULL FRITID</t>
+  </si>
+  <si>
+    <t>26-XX-XX</t>
+  </si>
+  <si>
+    <t>SAMMANFATTNING</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nej</t>
+  </si>
+  <si>
+    <t>Verksamheten kring Fritidshem planeras, följs upp och utvecklas utifrån de nationella målen och läroplan för fritidshem (systematiskt kvalitetsarbete) .</t>
+  </si>
+  <si>
+    <t>Kryssa i de påståenden som stämmer för er kommun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +273,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -416,11 +453,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -470,37 +542,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,6 +606,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bildobjekt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52D7015-46BF-A64C-9F70-A97FD4C99400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="0"/>
+          <a:ext cx="1714500" cy="879475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -889,11 +1031,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EC959F-F8F5-A74D-A764-D2A5F8F3B53F}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19">
+      <c r="A1" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="20">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" ht="81" thickTop="1">
+      <c r="A9" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="80">
+      <c r="A10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="80">
+      <c r="A11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="40">
+      <c r="A12" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="40">
+      <c r="A13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" customHeight="1">
+      <c r="A14" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="40">
+      <c r="A15" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="20">
+      <c r="A16" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:XFD16" xr:uid="{AABD1B62-9418-8444-A9EE-3538E2DA9A6C}">
+      <formula1>$A$20:$A$21</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC34EE-B55D-6C4C-A07E-2F5F91D32621}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -903,7 +1203,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19">
       <c r="A1" s="14" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20">
@@ -914,61 +1214,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19">
-      <c r="A4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A5" s="10" t="s">
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1">
+      <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="17" thickTop="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="44">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" thickTop="1">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="26" customFormat="1" ht="44">
-      <c r="A7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" ht="80">
-      <c r="A8" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="40">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="80">
+      <c r="A9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="A10" s="11" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -979,7 +1273,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A11" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -990,7 +1284,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1001,7 +1295,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A13" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1012,7 +1306,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A14" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1021,88 +1315,91 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="19">
-      <c r="A15" s="12"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:7" s="26" customFormat="1" ht="32" customHeight="1">
-      <c r="A16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" s="16" customFormat="1" ht="60">
-      <c r="A17" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="60">
-      <c r="A18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="40">
+      <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="19">
+      <c r="A16" s="12"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" ht="32" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" s="16" customFormat="1" ht="60">
+      <c r="A18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A19" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A20" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="19">
-      <c r="A21" s="9"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" s="32" customFormat="1" ht="36" customHeight="1">
-      <c r="A22" s="31" t="s">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="19">
+      <c r="A22" s="9"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" s="27" customFormat="1" ht="36" customHeight="1">
+      <c r="A23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="1:5" s="16" customFormat="1" ht="60">
+      <c r="A24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="80">
+      <c r="A25" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="33"/>
-    </row>
-    <row r="23" spans="1:5" s="16" customFormat="1" ht="60">
-      <c r="A23" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="80">
-      <c r="A24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="40">
-      <c r="A25" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1110,7 +1407,7 @@
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A26" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1118,7 +1415,7 @@
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A27" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1126,47 +1423,47 @@
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A28" s="11" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:5" s="26" customFormat="1" ht="82" customHeight="1">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="82" customHeight="1">
+      <c r="A30" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+    </row>
+    <row r="31" spans="1:5" s="16" customFormat="1" ht="40">
+      <c r="A31" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="100">
+      <c r="A32" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" s="16" customFormat="1" ht="40">
-      <c r="A30" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="100">
-      <c r="A31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="60">
-      <c r="A32" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" ht="40">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="60">
       <c r="A33" s="11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1174,7 +1471,7 @@
     </row>
     <row r="34" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A34" s="11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1188,39 +1485,39 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" ht="19">
-      <c r="A36" s="12"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-    </row>
-    <row r="37" spans="1:4" s="26" customFormat="1" ht="32" customHeight="1">
-      <c r="A37" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-    </row>
-    <row r="38" spans="1:4" s="16" customFormat="1" ht="40">
-      <c r="A38" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="1:4" s="4" customFormat="1" ht="100">
-      <c r="A39" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" ht="40">
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="19">
+      <c r="A37" s="12"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+    </row>
+    <row r="38" spans="1:4" ht="32" customHeight="1">
+      <c r="A38" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+    </row>
+    <row r="39" spans="1:4" s="16" customFormat="1" ht="40">
+      <c r="A39" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" spans="1:4" s="4" customFormat="1" ht="100">
       <c r="A40" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1228,7 +1525,7 @@
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A41" s="11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1236,7 +1533,7 @@
     </row>
     <row r="42" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A42" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1244,7 +1541,7 @@
     </row>
     <row r="43" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A43" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1252,53 +1549,53 @@
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A44" s="11" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="19">
-      <c r="A45" s="12"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:4" s="26" customFormat="1" ht="54" customHeight="1">
-      <c r="A46" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-    </row>
-    <row r="47" spans="1:4" s="16" customFormat="1" ht="40">
-      <c r="A47" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-    </row>
-    <row r="48" spans="1:4" s="16" customFormat="1" ht="80">
-      <c r="A48" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+    <row r="45" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A45" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" ht="19">
+      <c r="A46" s="12"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:4" ht="54" customHeight="1">
+      <c r="A47" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+    </row>
+    <row r="48" spans="1:4" s="16" customFormat="1" ht="40">
+      <c r="A48" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
     </row>
     <row r="49" spans="1:5" s="16" customFormat="1" ht="80">
       <c r="A49" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="1:5" s="16" customFormat="1" ht="60">
+    <row r="50" spans="1:5" s="16" customFormat="1" ht="80">
       <c r="A50" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -1306,53 +1603,53 @@
     </row>
     <row r="51" spans="1:5" s="16" customFormat="1" ht="60">
       <c r="A51" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="1:5" ht="19">
-      <c r="A52" s="9"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" s="26" customFormat="1" ht="27" customHeight="1">
-      <c r="A53" s="30" t="s">
+    <row r="52" spans="1:5" s="16" customFormat="1" ht="60">
+      <c r="A52" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="19">
+      <c r="A53" s="9"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:5" ht="27" customHeight="1">
+      <c r="A54" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+    </row>
+    <row r="55" spans="1:5" s="16" customFormat="1" ht="25" customHeight="1">
+      <c r="A55" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A56" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-    </row>
-    <row r="54" spans="1:5" s="16" customFormat="1" ht="25" customHeight="1">
-      <c r="A54" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-    </row>
-    <row r="55" spans="1:5" s="4" customFormat="1" ht="40">
-      <c r="A55" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="60">
-      <c r="A56" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="57" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A57" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1360,126 +1657,134 @@
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A58" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" ht="58" customHeight="1">
+    <row r="59" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A59" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="60" spans="1:5" s="4" customFormat="1" ht="58" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:5">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="20"/>
-    </row>
-    <row r="62" spans="1:5" ht="22">
-      <c r="A62" s="17" t="s">
+    <row r="61" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A61" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="1:5" ht="22">
+      <c r="A63" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" s="16" customFormat="1" ht="20">
+      <c r="A64" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
+      <c r="A65" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="21"/>
-    </row>
-    <row r="63" spans="1:5" s="16" customFormat="1" ht="20">
-      <c r="A63" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="22"/>
-    </row>
-    <row r="64" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
-      <c r="A64" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="23"/>
-    </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="60">
-      <c r="A65" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="23"/>
     </row>
-    <row r="66" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="66" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A66" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="20">
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A67" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="23"/>
     </row>
-    <row r="68" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="20">
       <c r="A68" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="23"/>
     </row>
-    <row r="69" spans="1:5" ht="19">
-      <c r="A69" s="9"/>
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A69" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="1:5" ht="19">
+      <c r="A70" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B62:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/Kartläggning_fritid.xlsx
+++ b/docs/Kartläggning_fritid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarala/DIDsteg2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE9238-CE98-274E-925D-0BF290095DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFD9D15-2721-164C-A52A-97E90047BCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
+    <workbookView xWindow="2200" yWindow="1440" windowWidth="29200" windowHeight="21340" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sammanfattning Övergripande" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>Denna kartläggning besvaras av kommun:</t>
   </si>
@@ -54,9 +54,6 @@
     <t>osv..</t>
   </si>
   <si>
-    <t>Samordnade insatser runt barn och unga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Det finns plattformar eller forum för tvärsektoriellt arbete där fritids- och föreningsverksamhet ingår.  </t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Verksamheten har planerats eller anpassas utifrån Boverkets riktlinjer om friyta för lek och utevistelse.</t>
   </si>
   <si>
-    <t>Barnet och vårdnadshavare erbjuds inflytande över utbildningen i fritidshemmet.</t>
-  </si>
-  <si>
     <t>Det görs uppföljning av vilka målgrupper som deltar i den öppna fritidsverksamheten.</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Det finns samverkan med andra lokala aktörer som erbjuder barn -och ungdomsverksamhet, såsom öppen fritidsverksamhet, civilsamhällesorganisationer och privata aktörer.</t>
   </si>
   <si>
-    <t>Det finns långsiktig finansiering av barn och ungdomsverksamheten på biblioteken.</t>
-  </si>
-  <si>
     <t>Inkluderande kultur-/musikskola</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>Det finns långsiktig finansiering för kostnadsfria lovaktiviteter.</t>
   </si>
   <si>
-    <t>Det finns en överenskommelse rörande samordnade insatser runt barn och ungdomar mellan relevanta aktörer där kultur- och fritidsverksamheten ingår.</t>
-  </si>
-  <si>
     <t>Det finns mål och strategier för arbetet med samordnade insatser runt barn och ungdomar.</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>Fritidshem</t>
   </si>
   <si>
-    <t>Öppen fritidsverksamhet/mötesplatser</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kommunen erbjuder öppen fritidsverksamhet, exempelvis fritidsgårdar, ungdomens hus eller aktivitetshus för barn i åldern 10-13 år. </t>
   </si>
   <si>
@@ -150,21 +135,9 @@
     <t>Barn och ungdomar inkluderas i utformningen av verksamheten.</t>
   </si>
   <si>
-    <t>Det finns mål och strategier för arbetet med barn och ungdomsverksamheten på biblioteken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Det görs uppföljning av vilka som besöker barn och ungdomsverksamheten på biblioteken. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Det finns samverkan med andra lokala aktörer som erbjuder ungdomsverksamhet, så som, öppen fritidsverksamhet, civilsamhällesorganisationer och privata aktörer. </t>
   </si>
   <si>
-    <t>Det finns mål och strategier för arbetet med inkluderande kultur-/musikskola.</t>
-  </si>
-  <si>
-    <t>Tillgänglig och inkluderande fritidsverksamhet</t>
-  </si>
-  <si>
     <t>Kommunen ställer krav på föreningsverksamhet att vara inkluderande.</t>
   </si>
   <si>
@@ -213,9 +186,6 @@
     <t xml:space="preserve">Arbetet dokumenteras och följs upp.  </t>
   </si>
   <si>
-    <t>Barn och unga involveras i planeringen och genomförandet av organiserade aktiviteter.</t>
-  </si>
-  <si>
     <t>Kartläggning MENINGSFULL FRITID</t>
   </si>
   <si>
@@ -231,17 +201,77 @@
     <t>Nej</t>
   </si>
   <si>
-    <t>Verksamheten kring Fritidshem planeras, följs upp och utvecklas utifrån de nationella målen och läroplan för fritidshem (systematiskt kvalitetsarbete) .</t>
-  </si>
-  <si>
     <t>Kryssa i de påståenden som stämmer för er kommun</t>
+  </si>
+  <si>
+    <t>Det finns en överenskommelse rörande samordnade insatser runt barn och ungdomar där kultur- och fritidsverksamheten ingår.</t>
+  </si>
+  <si>
+    <t>Verksamheten planeras, följs upp och utvecklas utifrån de nationella målen och läroplan för fritidshem (systematiskt kvalitetsarbete) </t>
+  </si>
+  <si>
+    <t>Det finns tillgängliga, trygga och vardagsnära utomhusmiljöer för varierad, ostrukturerad fritid i kommunen.</t>
+  </si>
+  <si>
+    <t>Tidiga, samordnade insatser runt barn och ungdomar</t>
+  </si>
+  <si>
+    <t>Barnet och föräldrar erbjuds inflytande över utbildningen i fritidshemmet.</t>
+  </si>
+  <si>
+    <t>Öppen ungdoms- och fritidsverksamhet/mötesplatser</t>
+  </si>
+  <si>
+    <t>Riktad verksamhet erbjuds till unga som står långt från deltagande (ex HBTQI, tjejer, unga med funktionsnedsättning).</t>
+  </si>
+  <si>
+    <t>Det finns bibliotek med barn- och ungdomsverksamhet i kommunen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det görs uppföljning av vilka som besöker barn- och ungdomsverksamheten på biblioteken. </t>
+  </si>
+  <si>
+    <t>Det finns långsiktig finansiering av barn- och ungdomsverksamheten på biblioteken.</t>
+  </si>
+  <si>
+    <t>Det finns mål och strategier för arbetet med barn- och ungdomsverksamheten på biblioteken.</t>
+  </si>
+  <si>
+    <t>Det finns mål och strategier för arbetet med  kultur-/musikskola.</t>
+  </si>
+  <si>
+    <t>Tillgänglig och inkluderande föreningsverksamhet</t>
+  </si>
+  <si>
+    <t>Utomhusmiljöer för lek, spontanidrott, friluftsliv och återhämtning</t>
+  </si>
+  <si>
+    <t>Barn och ungdomars synpunkter och behov i inkluderas i utformningen av fältarbetet.</t>
+  </si>
+  <si>
+    <t>Det finns mål och strategier för arbetet med utomhusmiljöer för lek, spontanidrott, friluftsliv och återhämtning.</t>
+  </si>
+  <si>
+    <t>Det finns kartlagda naturområden, platser och aktiviteter för fritidsområden tillgängliga i GIS för användning i den lokala planeringen.</t>
+  </si>
+  <si>
+    <t>Det finns en ändamålsenlig samverkan mellan förvaltningarna i kommunen, med föreningar, privata aktörer eller näringsliv för att utveckla hur utomhusmiljöer används.</t>
+  </si>
+  <si>
+    <t>Det finns en långsiktig finansiering av underhåll och utveckling av utomhusmiljöer.</t>
+  </si>
+  <si>
+    <t>Det görs uppföljningar av vilka som nyttjar utomhusmiljöer så som parker och naturområden.</t>
+  </si>
+  <si>
+    <t>Barn och ungdomar görs delaktiga i utformningen av utomhusmiljöer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,6 +324,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -454,21 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -492,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -560,34 +581,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,7 +1061,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19">
       <c r="A1" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1058,30 +1076,30 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="36" t="s">
-        <v>61</v>
+      <c r="A5" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" ht="81" thickTop="1">
-      <c r="A9" s="37" t="s">
-        <v>26</v>
+      <c r="A9" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1091,8 +1109,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="80">
-      <c r="A10" s="38" t="s">
-        <v>64</v>
+      <c r="A10" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1102,8 +1120,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="80">
-      <c r="A11" s="38" t="s">
-        <v>34</v>
+      <c r="A11" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1113,8 +1131,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="40">
-      <c r="A12" s="38" t="s">
-        <v>15</v>
+      <c r="A12" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1124,8 +1142,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="40">
-      <c r="A13" s="38" t="s">
-        <v>19</v>
+      <c r="A13" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1135,8 +1153,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="45" customHeight="1">
-      <c r="A14" s="39" t="s">
-        <v>42</v>
+      <c r="A14" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1145,9 +1163,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="40">
-      <c r="A15" s="38" t="s">
-        <v>24</v>
+    <row r="15" spans="1:7" ht="60">
+      <c r="A15" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1157,8 +1175,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="20">
-      <c r="A16" s="40" t="s">
-        <v>53</v>
+      <c r="A16" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1167,19 +1185,30 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="34" t="s">
-        <v>63</v>
+    <row r="17" spans="1:7" ht="60">
+      <c r="A17" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="31" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:XFD16" xr:uid="{AABD1B62-9418-8444-A9EE-3538E2DA9A6C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:XFD16 B17:G17" xr:uid="{AABD1B62-9418-8444-A9EE-3538E2DA9A6C}">
       <formula1>$A$20:$A$21</formula1>
     </dataValidation>
   </dataValidations>
@@ -1190,11 +1219,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC34EE-B55D-6C4C-A07E-2F5F91D32621}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1203,7 +1230,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19">
       <c r="A1" s="14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20">
@@ -1215,12 +1242,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="17">
-      <c r="A4" s="35" t="s">
-        <v>65</v>
+      <c r="A4" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="35"/>
+      <c r="A5" s="32"/>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1">
       <c r="A6" s="10" t="s">
@@ -1230,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>4</v>
@@ -1243,26 +1270,26 @@
     </row>
     <row r="8" spans="1:7" ht="44">
       <c r="A8" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="80">
+        <v>58</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+        <v>55</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="A10" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1273,7 +1300,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A11" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1284,7 +1311,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A12" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1295,7 +1322,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A13" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1306,7 +1333,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A14" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1317,7 +1344,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A15" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1328,29 +1355,29 @@
     </row>
     <row r="16" spans="1:7" ht="19">
       <c r="A16" s="12"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="32" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+        <v>28</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
     </row>
     <row r="18" spans="1:5" s="16" customFormat="1" ht="60">
       <c r="A18" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+        <v>6</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A19" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1358,7 +1385,7 @@
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A20" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1366,7 +1393,7 @@
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A21" s="13" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1374,32 +1401,32 @@
     </row>
     <row r="22" spans="1:5" ht="19">
       <c r="A22" s="9"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5" s="27" customFormat="1" ht="36" customHeight="1">
       <c r="A23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+        <v>60</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" s="16" customFormat="1" ht="60">
       <c r="A24" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+        <v>29</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="80">
       <c r="A25" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1407,7 +1434,7 @@
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A26" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1415,7 +1442,7 @@
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A27" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1423,55 +1450,55 @@
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A28" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A29" s="11" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="82" customHeight="1">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="82" customHeight="1">
+      <c r="A31" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" s="16" customFormat="1" ht="40">
+      <c r="A32" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="100">
+      <c r="A33" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-    </row>
-    <row r="31" spans="1:5" s="16" customFormat="1" ht="40">
-      <c r="A31" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="100">
-      <c r="A32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" ht="60">
-      <c r="A33" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" ht="40">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="60">
       <c r="A34" s="11" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1479,7 +1506,7 @@
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A35" s="11" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1487,45 +1514,45 @@
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A36" s="11" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="19">
-      <c r="A37" s="12"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-    </row>
-    <row r="38" spans="1:4" ht="32" customHeight="1">
-      <c r="A38" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" spans="1:4" s="16" customFormat="1" ht="40">
-      <c r="A39" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" ht="100">
-      <c r="A40" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" s="4" customFormat="1" ht="40">
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" ht="19">
+      <c r="A38" s="12"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+    </row>
+    <row r="39" spans="1:4" ht="32" customHeight="1">
+      <c r="A39" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+    </row>
+    <row r="40" spans="1:4" s="16" customFormat="1" ht="40">
+      <c r="A40" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+    </row>
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="100">
       <c r="A41" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1533,7 +1560,7 @@
     </row>
     <row r="42" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A42" s="11" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1541,7 +1568,7 @@
     </row>
     <row r="43" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A43" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1549,7 +1576,7 @@
     </row>
     <row r="44" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A44" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1557,213 +1584,296 @@
     </row>
     <row r="45" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A45" s="11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" ht="19">
-      <c r="A46" s="12"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-    </row>
-    <row r="47" spans="1:4" ht="54" customHeight="1">
-      <c r="A47" s="25" t="s">
+    <row r="46" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" ht="19">
+      <c r="A47" s="9"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+    </row>
+    <row r="48" spans="1:4" ht="27" customHeight="1">
+      <c r="A48" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:5" s="16" customFormat="1" ht="25" customHeight="1">
+      <c r="A49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+    </row>
+    <row r="50" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A50" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" s="4" customFormat="1" ht="60">
+      <c r="A51" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A52" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A53" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" s="4" customFormat="1" ht="58" customHeight="1">
+      <c r="A54" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-    </row>
-    <row r="48" spans="1:4" s="16" customFormat="1" ht="40">
-      <c r="A48" s="29" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A55" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-    </row>
-    <row r="49" spans="1:5" s="16" customFormat="1" ht="80">
-      <c r="A49" s="13" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" ht="19">
+      <c r="A56" s="12"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+    </row>
+    <row r="57" spans="1:5" ht="54" customHeight="1">
+      <c r="A57" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+    </row>
+    <row r="58" spans="1:5" s="16" customFormat="1" ht="40">
+      <c r="A58" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+    </row>
+    <row r="59" spans="1:5" s="16" customFormat="1" ht="80">
+      <c r="A59" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" s="16" customFormat="1" ht="80">
+      <c r="A60" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" s="16" customFormat="1" ht="60">
+      <c r="A61" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="1:5" s="16" customFormat="1" ht="60">
+      <c r="A62" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="20"/>
+    </row>
+    <row r="64" spans="1:5" ht="22">
+      <c r="A64" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:5" s="16" customFormat="1" ht="80">
-      <c r="A50" s="13" t="s">
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" s="16" customFormat="1" ht="20">
+      <c r="A65" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:5" s="16" customFormat="1" ht="60">
-      <c r="A51" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:5" s="16" customFormat="1" ht="60">
-      <c r="A52" s="13" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
+      <c r="A66" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="1:5" ht="19">
-      <c r="A53" s="9"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-    </row>
-    <row r="54" spans="1:5" ht="27" customHeight="1">
-      <c r="A54" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-    </row>
-    <row r="55" spans="1:5" s="16" customFormat="1" ht="25" customHeight="1">
-      <c r="A55" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-    </row>
-    <row r="56" spans="1:5" s="4" customFormat="1" ht="40">
-      <c r="A56" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" s="4" customFormat="1" ht="60">
-      <c r="A57" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" s="4" customFormat="1" ht="40">
-      <c r="A58" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" s="4" customFormat="1" ht="40">
-      <c r="A59" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" s="4" customFormat="1" ht="58" customHeight="1">
-      <c r="A60" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" s="4" customFormat="1" ht="40">
-      <c r="A61" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="20"/>
-    </row>
-    <row r="63" spans="1:5" ht="22">
-      <c r="A63" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="21"/>
-    </row>
-    <row r="64" spans="1:5" s="16" customFormat="1" ht="20">
-      <c r="A64" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="22"/>
-    </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
-      <c r="A65" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="23"/>
-    </row>
-    <row r="66" spans="1:5" s="4" customFormat="1" ht="60">
-      <c r="A66" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="23"/>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A67" s="19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="23"/>
     </row>
-    <row r="68" spans="1:5" s="4" customFormat="1" ht="20">
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A68" s="19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="23"/>
     </row>
-    <row r="69" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="20">
       <c r="A69" s="19" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="23"/>
     </row>
-    <row r="70" spans="1:5" ht="19">
-      <c r="A70" s="9"/>
+    <row r="70" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A70" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="23"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="20"/>
+    </row>
+    <row r="72" spans="1:5" ht="44">
+      <c r="A72" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="21"/>
+    </row>
+    <row r="73" spans="1:5" s="16" customFormat="1" ht="60">
+      <c r="A73" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="1:5" s="4" customFormat="1" ht="60">
+      <c r="A74" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="23"/>
+    </row>
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="60">
+      <c r="A75" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="23"/>
+    </row>
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="80">
+      <c r="A76" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="23"/>
+    </row>
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A77" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="23"/>
+    </row>
+    <row r="78" spans="1:5" s="4" customFormat="1" ht="60">
+      <c r="A78" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="23"/>
+    </row>
+    <row r="79" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A79" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B30:B31"/>
+  <mergeCells count="27">
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="C22:C24"/>
@@ -1773,18 +1883,21 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B63:B65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
